--- a/data/final/final_suggested_activities.xlsx
+++ b/data/final/final_suggested_activities.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,23 +454,35 @@
           <t>concatenated</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>sum_similarity</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Services de loisirs et de récréation</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Technicien de Maintenance du matériel Prépresse CTP</t>
+          <t>تربية و تعليم ركوب الخيل</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Le service Prépresse est équipé des machines CTP (Computer To Plate) et ça nécessite un technicien pour l'installation, la mise en marche, la formation et la maintenance.</t>
+          <t>ننظم خرجات ركوب الخيل اساسها تعليم اساسيات الركوب مع الترفيه عن النفس حيث تعتبر نشاط يقوي الشخصية و يحفز و يعطي طاقة ايجابية نحن كجزء من مزرعة خيل لقينا اقبال كثير حيث اصبحنا نمثل الوجخة الاولى في ولاية تيبازة و باستطاعة اي شخص المشاركة حتى و للمرة لولى</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Technicien de Maintenance du matériel Prépresse CTP-Le service Prépresse est équipé des machines CTP (Computer To Plate) et ça nécessite un technicien pour l'installation, la mise en marche, la formation et la maintenance.</t>
-        </is>
+          <t>تربية و تعليم ركوب الخيل-ننظم خرجات ركوب الخيل اساسها تعليم اساسيات الركوب مع الترفيه عن النفس حيث تعتبر نشاط يقوي الشخصية و يحفز و يعطي طاقة ايجابية نحن كجزء من مزرعة خيل لقينا اقبال كثير حيث اصبحنا نمثل الوجخة الاولى في ولاية تيبازة و باستطاعة اي شخص المشاركة حتى و للمرة لولى</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>201.6105194091797</v>
       </c>
     </row>
     <row r="3">
@@ -494,95 +506,79 @@
           <t>الرسم بالزيت والرمل-رسم أشخاص وطبيعة و مناظر صحراوية  بالزيت والرمل</t>
         </is>
       </c>
+      <c r="E3" t="n">
+        <v>274.4566040039062</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Services de loisirs et de récréation</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>تربية و تعليم ركوب الخيل</t>
+          <t>محطة غسيل السياراة</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ننظم خرجات ركوب الخيل اساسها تعليم اساسيات الركوب مع الترفيه عن النفس حيث تعتبر نشاط يقوي الشخصية و يحفز و يعطي طاقة ايجابية نحن كجزء من مزرعة خيل لقينا اقبال كثير حيث اصبحنا نمثل الوجخة الاولى في ولاية تيبازة و باستطاعة اي شخص المشاركة حتى و للمرة لولى</t>
+          <t>لم اعثر عنها  اريد الاندماج معكم</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>تربية و تعليم ركوب الخيل-ننظم خرجات ركوب الخيل اساسها تعليم اساسيات الركوب مع الترفيه عن النفس حيث تعتبر نشاط يقوي الشخصية و يحفز و يعطي طاقة ايجابية نحن كجزء من مزرعة خيل لقينا اقبال كثير حيث اصبحنا نمثل الوجخة الاولى في ولاية تيبازة و باستطاعة اي شخص المشاركة حتى و للمرة لولى</t>
-        </is>
+          <t>محطة غسيل السياراة-لم اعثر عنها  اريد الاندماج معكم</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>294.7171936035156</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Services à la personne</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>محطة غسيل السياراة</t>
+          <t>Technicien de Maintenance du matériel Prépresse CTP</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>لم اعثر عنها  اريد الاندماج معكم</t>
+          <t>Le service Prépresse est équipé des machines CTP (Computer To Plate) et ça nécessite un technicien pour l'installation, la mise en marche, la formation et la maintenance.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>محطة غسيل السياراة-لم اعثر عنها  اريد الاندماج معكم</t>
-        </is>
+          <t>Technicien de Maintenance du matériel Prépresse CTP-Le service Prépresse est équipé des machines CTP (Computer To Plate) et ça nécessite un technicien pour l'installation, la mise en marche, la formation et la maintenance.</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>359.7183227539062</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Services numériques et activités connexes</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Trading / التداول</t>
+          <t>سياقة درجة نارية</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Le Trading c’est analyser les marchés ( la bourse ) c’est un domaine dans les 4  ou 5 dernières années très populaire et la plupart des jeunes ils sont concentrés en ce domaine, Je pense que c’est une bonne idée l’autoriser dans notre pays et Ils peuvent payer des impôts et travailler légalement _x000D_
-Merci pour votre attention.</t>
+          <t>Easy &amp; Speed</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Trading / التداول-Le Trading c’est analyser les marchés ( la bourse ) c’est un domaine dans les 4  ou 5 dernières années très populaire et la plupart des jeunes ils sont concentrés en ce domaine, Je pense que c’est une bonne idée l’autoriser dans notre pays et Ils peuvent payer des impôts et travailler légalement _x000D_
-Merci pour votre attention.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Services à la personne</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>سياقة درجة نارية</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Easy &amp; Speed</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>سياقة درجة نارية-Easy &amp; Speed</t>
         </is>
+      </c>
+      <c r="E6" t="n">
+        <v>364.4752502441406</v>
       </c>
     </row>
   </sheetData>
